--- a/TP_integrador_Archivos_1/Productos/Electronic accessories.xlsx
+++ b/TP_integrador_Archivos_1/Productos/Electronic accessories.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ingunlamedu.sharepoint.com/sites/BasesdeDatosAplicada-Docentes/Documentos compartidos/Docentes/2024/2doCuatrimestre/TP Integrador-Preparacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\OneDrive\Escritorio\UNLaM\BASE DE DATOS APLICADA\TP BBDD APLICADAS\TP_integrador_Archivos_1\Productos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_003114633F7A49C9E2EE080DB99291CCF8B648EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25651E64-4B12-4D94-9C8D-55CBEB878F4F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +627,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:C26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
